--- a/Smartlab/XD Export/Daftar Halaman.xlsx
+++ b/Smartlab/XD Export/Daftar Halaman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\xampp\htdocs\slab\Smartlab\Smartlab\XD Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9F5EBA-8577-4C66-9D38-91429EBC84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC731E0-A1AF-4650-951C-6EEBEDC307BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3B5A9628-562E-427B-84EC-2535D23706E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>REVISI</t>
   </si>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,85 +290,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB5155-12EF-4C5B-87F1-5BCDF9295286}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,610 +700,641 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="30" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="30" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="30" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="31"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="31"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="31"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="31"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="31"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="31"/>
+      <c r="C16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="31"/>
+      <c r="C20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="31"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="31"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="31"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="31"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="31"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="31"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="31"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="16" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="31"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="15" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="15" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="16" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="31"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="15" t="s">
+      <c r="C41" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="31"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="15" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="15" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="16" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="31"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="15" t="s">
+      <c r="C50" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="15" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="31"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="16" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="31"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="31"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="31"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="31"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="D41:E44"/>
-    <mergeCell ref="C36:D40"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:D11"/>
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="D16:E19"/>
-    <mergeCell ref="D20:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C24:D27"/>
     <mergeCell ref="C50:C53"/>
@@ -1323,14 +1351,23 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D20:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:D11"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="D16:E19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="D41:E44"/>
+    <mergeCell ref="C36:D40"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E32:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Smartlab/XD Export/Daftar Halaman.xlsx
+++ b/Smartlab/XD Export/Daftar Halaman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\xampp\htdocs\slab\Smartlab\Smartlab\XD Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC731E0-A1AF-4650-951C-6EEBEDC307BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194B8D5-6DCD-4B4B-9050-13DCB03D1B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3B5A9628-562E-427B-84EC-2535D23706E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="24">
   <si>
     <t>REVISI</t>
   </si>
@@ -310,15 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,6 +345,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB5155-12EF-4C5B-87F1-5BCDF9295286}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,11 +736,11 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -750,9 +750,9 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
@@ -762,9 +762,9 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
@@ -774,9 +774,9 @@
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
@@ -788,9 +788,9 @@
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -802,9 +802,9 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="10" t="s">
         <v>4</v>
       </c>
@@ -814,9 +814,9 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="10" t="s">
         <v>4</v>
       </c>
@@ -826,9 +826,9 @@
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
@@ -840,9 +840,9 @@
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -854,9 +854,9 @@
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
@@ -866,9 +866,9 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="10" t="s">
         <v>4</v>
       </c>
@@ -878,9 +878,9 @@
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
         <v>4</v>
       </c>
@@ -892,11 +892,11 @@
       <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="10" t="s">
         <v>4</v>
       </c>
@@ -906,9 +906,9 @@
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="10" t="s">
         <v>4</v>
       </c>
@@ -918,9 +918,9 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
         <v>4</v>
       </c>
@@ -930,9 +930,9 @@
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="10" t="s">
         <v>4</v>
       </c>
@@ -944,42 +944,50 @@
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="11"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
@@ -988,9 +996,9 @@
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="24" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="10"/>
@@ -1000,9 +1008,9 @@
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,9 +1018,9 @@
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,9 +1028,9 @@
       <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,11 +1040,11 @@
       <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,17 +1052,17 @@
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,9 +1070,9 @@
       <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="14"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,11 +1082,11 @@
       <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="21"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="18"/>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,9 +1094,9 @@
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="10" t="s">
         <v>4</v>
       </c>
@@ -1098,9 +1106,9 @@
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,9 +1116,9 @@
       <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="23"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,9 +1128,9 @@
       <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="24" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -1134,9 +1142,9 @@
       <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="25"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="10" t="s">
         <v>4</v>
       </c>
@@ -1146,9 +1154,9 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="25"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="10" t="s">
         <v>4</v>
       </c>
@@ -1158,9 +1166,9 @@
       <c r="B39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="25"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="10" t="s">
         <v>4</v>
       </c>
@@ -1170,9 +1178,9 @@
       <c r="B40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="26"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,11 +1190,11 @@
       <c r="B41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="10" t="s">
         <v>4</v>
       </c>
@@ -1196,9 +1204,9 @@
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="10" t="s">
         <v>4</v>
       </c>
@@ -1208,9 +1216,9 @@
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="10" t="s">
         <v>4</v>
       </c>
@@ -1220,9 +1228,9 @@
       <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="10" t="s">
         <v>4</v>
       </c>
@@ -1234,51 +1242,59 @@
       <c r="B45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="11"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="11"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="11"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="14"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,86 +1304,94 @@
       <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="10"/>
+      <c r="C50" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="10"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="10"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="10"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:D11"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D50:E53"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C24:D27"/>
+    <mergeCell ref="D28:D31"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C24:D27"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D50:E53"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="D20:E23"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:D11"/>
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="D16:E19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="E28:E31"/>
     <mergeCell ref="D41:E44"/>
     <mergeCell ref="C36:D40"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="D16:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Smartlab/XD Export/Daftar Halaman.xlsx
+++ b/Smartlab/XD Export/Daftar Halaman.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\xampp\htdocs\slab\Smartlab\Smartlab\XD Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194B8D5-6DCD-4B4B-9050-13DCB03D1B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4490FF4D-2BD6-43A7-9129-9AAB651A822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3B5A9628-562E-427B-84EC-2535D23706E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
   <si>
     <t>REVISI</t>
   </si>
@@ -97,13 +97,49 @@
   </si>
   <si>
     <t>LOGIN</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/parameters</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/akseslevels</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/jenissampels</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/pakets</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/labakuns</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/metodes</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/halamans</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/detailtrackings/id</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/datasampels</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/hasilanalisas</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/pelanggans</t>
+  </si>
+  <si>
+    <t>https://slab.srs-ssms.com/admin/aktivitas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +170,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,10 +316,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +355,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,14 +382,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,20 +394,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,8 +403,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB5155-12EF-4C5B-87F1-5BCDF9295286}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,22 +741,23 @@
     <col min="3" max="4" width="21.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -729,650 +777,664 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="G4" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="G8" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="G12" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="G16" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="G20" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
       <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="G24" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
       <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="G28" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
       <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="26"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="18"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="G32" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="19"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="19"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
       <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="20"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="21" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="G36" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
       <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="22"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
       <c r="B39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
       <c r="B40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="23"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="G41" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
       <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="24"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="12"/>
       <c r="F45" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="G45" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
       <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="25"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="25"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
       <c r="B48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="25"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
       <c r="B49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="26"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
+      <c r="C50" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="G50" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
       <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
       <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:D11"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D50:E53"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="E28:E31"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C24:D27"/>
     <mergeCell ref="D28:D31"/>
@@ -1386,14 +1448,50 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="E12:E15"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="D16:E19"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D50:E53"/>
+    <mergeCell ref="E45:E49"/>
     <mergeCell ref="D41:E44"/>
     <mergeCell ref="C36:D40"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="D16:E19"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:D11"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E28:E31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{E1B97352-C7A0-4045-9F4F-BD492E98C93A}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{BC194E4D-5E32-4C77-B008-AC198998050E}"/>
+    <hyperlink ref="G50" r:id="rId3" xr:uid="{7305DB89-85B7-48CE-9127-3C57BD1D643C}"/>
+    <hyperlink ref="G45" r:id="rId4" xr:uid="{51B96A6C-44B5-436A-BC8F-51435E31E7F7}"/>
+    <hyperlink ref="G16" r:id="rId5" xr:uid="{C73D2B8C-EEF9-41FD-891B-545FAFAF0AF8}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{D1C1A70B-568A-4A82-96A0-26FAADA3C032}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{90BDFA1F-5626-4635-A0F0-0AB8F78EDC4C}"/>
+    <hyperlink ref="G28" r:id="rId8" xr:uid="{A5ADA267-0A21-4376-8806-0CCAD3F64FE3}"/>
+    <hyperlink ref="G32" r:id="rId9" xr:uid="{0E732050-2F09-4ECF-9498-D2CCFA77A702}"/>
+    <hyperlink ref="G36" r:id="rId10" xr:uid="{891DA32A-D571-4144-BBAA-A7F511315930}"/>
+    <hyperlink ref="G41" r:id="rId11" xr:uid="{C1483787-3048-4BEF-91F1-D45DF7FFD72C}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{3C5DA878-EFEF-461B-A4FF-E938377ED774}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>